--- a/excel/temp.xlsx
+++ b/excel/temp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>작성자</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>2021-11-08 09:38:11</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;teste111&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>2021-11-09 10:17:10</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;fdfdfdfd&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>2021-11-09 10:17:19</t>
   </si>
   <si>
     <t>2021-11-08 00:00:00</t>
@@ -489,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -597,16 +609,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -620,16 +632,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -637,19 +649,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -663,13 +675,53 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D10" t="s">
         <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/excel/temp.xlsx
+++ b/excel/temp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>작성자</t>
   </si>
@@ -34,10 +34,28 @@
     <t>오진석</t>
   </si>
   <si>
-    <t>개발팀</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;11121212121&lt;/p&gt;</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2021-11-16 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-11-17 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-11-23 09:17:30</t>
+  </si>
+  <si>
+    <t>fdfdfdfefefe</t>
+  </si>
+  <si>
+    <t>2021-11-15 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-11-08 09:38:26</t>
+  </si>
+  <si>
+    <t>11121212121</t>
   </si>
   <si>
     <t>2021-11-11 00:00:00</t>
@@ -49,7 +67,7 @@
     <t>2021-11-08 09:38:18</t>
   </si>
   <si>
-    <t>&lt;p&gt;dkdkdk&lt;/p&gt;&lt;p&gt;dkdkdk&lt;/p&gt;&lt;p&gt;dkdkdk&lt;/p&gt;&lt;p&gt;eltjwltjlk&lt;/p&gt;</t>
+    <t>dkdkdkdkdkdkdkdkdkeltjwltjlk</t>
   </si>
   <si>
     <t>2021-11-10 00:11:00</t>
@@ -61,45 +79,60 @@
     <t>2021-11-02 04:56:28</t>
   </si>
   <si>
-    <t>관리자</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;test&lt;/p&gt;</t>
+    <t>동해물과 백두산이 마르고 닳도록</t>
+  </si>
+  <si>
+    <t>2021-11-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-11-12 01:12:04</t>
   </si>
   <si>
     <t>2021-11-09 00:00:00</t>
   </si>
   <si>
-    <t>2021-11-10 00:00:00</t>
-  </si>
-  <si>
     <t>2021-11-06 03:39:21</t>
   </si>
   <si>
-    <t>&lt;p&gt;testt&lt;/p&gt;</t>
+    <t>testt</t>
   </si>
   <si>
     <t>2021-11-08 09:38:11</t>
   </si>
   <si>
-    <t>&lt;p&gt;teste111&lt;/p&gt;</t>
+    <t>teste111</t>
   </si>
   <si>
     <t>2021-11-09 10:17:10</t>
   </si>
   <si>
-    <t>&lt;p&gt;fdfdfdfd&lt;/p&gt;</t>
+    <t>fdfdfdfd</t>
   </si>
   <si>
     <t>2021-11-09 10:17:19</t>
   </si>
   <si>
+    <t>테스트 12132223</t>
+  </si>
+  <si>
+    <t>2021-11-22 04:15:31</t>
+  </si>
+  <si>
     <t>2021-11-08 00:00:00</t>
   </si>
   <si>
     <t>2021-11-08 09:37:35</t>
   </si>
   <si>
+    <t>윤채은</t>
+  </si>
+  <si>
+    <t>ddddd</t>
+  </si>
+  <si>
+    <t>2021-11-11 04:23:04</t>
+  </si>
+  <si>
     <t>2021-11-04 00:11:00</t>
   </si>
   <si>
@@ -109,7 +142,37 @@
     <t>2021-11-02 08:34:17</t>
   </si>
   <si>
-    <t>&lt;p&gt;ㅅㄷㄴㅅ&lt;/p&gt;</t>
+    <t>테스트</t>
+  </si>
+  <si>
+    <t>2021-11-04 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-11-06 03:26:86</t>
+  </si>
+  <si>
+    <t>2021-11-06 03:26:25</t>
+  </si>
+  <si>
+    <t>2021-11-06 03:24:20</t>
+  </si>
+  <si>
+    <t>2021-11-06 03:25:41</t>
+  </si>
+  <si>
+    <t>정황용</t>
+  </si>
+  <si>
+    <t>제작3팀과 모임</t>
+  </si>
+  <si>
+    <t>2021-11-05 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-11-04 07:19:11</t>
+  </si>
+  <si>
+    <t>ㅅㄷㄴㅅ</t>
   </si>
   <si>
     <t>2021-11-03 00:11:00</t>
@@ -125,6 +188,48 @@
   </si>
   <si>
     <t>2021-11-02 03:38:07</t>
+  </si>
+  <si>
+    <t>수정되는지 확인</t>
+  </si>
+  <si>
+    <t>2021-10-27T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2021-10-28T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2021-11-03 01:56:16</t>
+  </si>
+  <si>
+    <t>fefeeefefe</t>
+  </si>
+  <si>
+    <t>2021-10-25T06:30:00.000Z</t>
+  </si>
+  <si>
+    <t>2021-10-25T08:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2021-11-23 05:48:48</t>
+  </si>
+  <si>
+    <t>dfdfdfd</t>
+  </si>
+  <si>
+    <t>2021-10-17T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2021-10-18T15:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2021-10-11 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-10-12 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-11-11 09:28:32</t>
   </si>
 </sst>
 </file>
@@ -501,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -528,97 +633,82 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -628,17 +718,14 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -648,17 +735,14 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -668,60 +752,255 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
       <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
